--- a/public/gambarMember/dataMembers (1).xlsx
+++ b/public/gambarMember/dataMembers (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ghifar/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD014D4-54BA-F74C-B483-8953676AC474}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE70218-345E-4C4A-A528-CEA931241F27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,10 +65,10 @@
     <t>ziadyyy</t>
   </si>
   <si>
-    <t>ziadysss</t>
-  </si>
-  <si>
-    <t>ifarss</t>
+    <t>ziady123sss</t>
+  </si>
+  <si>
+    <t>ifars123s</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
